--- a/논문/논문 데이터 비교.xlsx
+++ b/논문/논문 데이터 비교.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Desktop/논문/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/git/template_matching_multiple_ROI/논문/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD76D96-0F9E-D94A-BE51-D99E46BCB59B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556F6FD9-632D-8D49-A735-A776FB00336E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{28588ECC-7C60-154C-993B-4798AA498DC9}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{28588ECC-7C60-154C-993B-4798AA498DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1119">
   <si>
     <t>roi set</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3393,6 +3394,26 @@
   </si>
   <si>
     <t>13  0.09721064567565918</t>
+  </si>
+  <si>
+    <t>Full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template/ROI area rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3528,7 +3549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3555,6 +3576,15 @@
     </xf>
     <xf numFmtId="177" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7445,6 +7475,350 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Compare Full screen vs set ROI</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-Kore-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Full</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ROI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ROI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ROI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.139862513138072E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4649528568073816E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9121066383693481E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9501985101138806E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.142727387918006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9193-A04B-91A8-A9E8FB8D589F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="271698912"/>
+        <c:axId val="271670144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="271698912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-Kore-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271670144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="271670144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-Kore-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271698912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-Kore-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
               <a:t>ROI</a:t>
             </a:r>
             <a:r>
@@ -8007,7 +8381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -8677,6 +9051,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11735,7 +12149,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11843,11 +12257,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11858,11 +12267,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11894,9 +12298,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12251,6 +12652,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13003,6 +13920,47 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123541ED-1696-D949-A0ED-9BEAFD4A468E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21911,10 +22869,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C440F1-E20C-8440-8B85-54B5A0B4D0E3}">
+  <dimension ref="A4:F83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="192" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9">
+        <v>0.46222916260000002</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.22127044165090601</v>
+      </c>
+      <c r="E4" s="9">
+        <v>9.4763923960169597E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7.3154584574644105E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C5" s="9">
+        <f>$B$6/C6</f>
+        <v>14.607040105041623</v>
+      </c>
+      <c r="D5" s="9">
+        <f>$B$6/D6</f>
+        <v>11.191125380763047</v>
+      </c>
+      <c r="E5" s="9">
+        <f>$B$6/E6</f>
+        <v>7.2532831462092737</v>
+      </c>
+      <c r="F5" s="9">
+        <f>$B$6/F6</f>
+        <v>6.808934562267865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(B10:B68)</f>
+        <v>2.139862513138072E-2</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(C10:C68)</f>
+        <v>1.4649528568073816E-3</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(D10:D68)</f>
+        <v>1.9121066383693481E-3</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(E10:E68)</f>
+        <v>2.9501985101138806E-3</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(F10:F83)</f>
+        <v>3.142727387918006E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>2.2982835769653299E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.8098354339599601E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.7409324645996001E-3</v>
+      </c>
+      <c r="E10">
+        <v>2.8917789459228498E-3</v>
+      </c>
+      <c r="F10">
+        <v>3.15332412719726E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11">
+        <v>2.10440158843994E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.4121532440185499E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.8520355224609299E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.9850006103515599E-3</v>
+      </c>
+      <c r="F11">
+        <v>3.0097961425781198E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>2.1113157272338801E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.36327743530273E-3</v>
+      </c>
+      <c r="D12">
+        <v>6.7703723907470703E-3</v>
+      </c>
+      <c r="E12">
+        <v>3.03888320922851E-3</v>
+      </c>
+      <c r="F12">
+        <v>3.0860900878906198E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>2.10950374603271E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.44696235656738E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.5900135040283201E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.9871463775634701E-3</v>
+      </c>
+      <c r="F13">
+        <v>3.2188892364501901E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14">
+        <v>2.1287918090820299E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.4820098876953099E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.7950534820556599E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.9621124267578099E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.07822227478027E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <v>2.16701030731201E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.25885009765625E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.64389610290527E-3</v>
+      </c>
+      <c r="E15">
+        <v>2.8438568115234301E-3</v>
+      </c>
+      <c r="F15">
+        <v>2.9566287994384701E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16">
+        <v>2.1464109420776301E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.47485733032226E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.61004066467285E-3</v>
+      </c>
+      <c r="E16">
+        <v>3.0698776245117101E-3</v>
+      </c>
+      <c r="F16">
+        <v>3.02004814147949E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>2.16269493103027E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.5249252319335901E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.62506103515625E-3</v>
+      </c>
+      <c r="E17">
+        <v>3.0529499053955E-3</v>
+      </c>
+      <c r="F17">
+        <v>3.2193660736083902E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>2.1159887313842701E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.41000747680664E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.57690048217773E-3</v>
+      </c>
+      <c r="E18">
+        <v>2.9401779174804601E-3</v>
+      </c>
+      <c r="F18">
+        <v>3.2379627227783199E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>2.15780735015869E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.4147758483886699E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.77264213562011E-3</v>
+      </c>
+      <c r="E19">
+        <v>2.9859542846679601E-3</v>
+      </c>
+      <c r="F19">
+        <v>2.8040409088134701E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>2.0845890045165998E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.7716884613037101E-3</v>
+      </c>
+      <c r="D20">
+        <v>1.8212795257568301E-3</v>
+      </c>
+      <c r="E20">
+        <v>2.9301643371582001E-3</v>
+      </c>
+      <c r="F20">
+        <v>3.2110214233398398E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>2.0998954772949201E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.7061233520507799E-3</v>
+      </c>
+      <c r="D21">
+        <v>1.88684463500976E-3</v>
+      </c>
+      <c r="E21">
+        <v>3.0100345611572201E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.9261112213134701E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>2.20711231231689E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.4641284942626901E-3</v>
+      </c>
+      <c r="D22">
+        <v>1.75309181213378E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.8872489929199201E-3</v>
+      </c>
+      <c r="F22">
+        <v>2.9909610748290998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>2.0587205886840799E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.60193443298339E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.5301704406738201E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.9621124267578099E-3</v>
+      </c>
+      <c r="F23">
+        <v>3.1490325927734301E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>2.08709239959716E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.38115882873535E-3</v>
+      </c>
+      <c r="D24">
+        <v>2.0542144775390599E-3</v>
+      </c>
+      <c r="E24">
+        <v>3.0190944671630799E-3</v>
+      </c>
+      <c r="F24">
+        <v>3.26776504516601E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>2.1641016006469699E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.4238357543945299E-3</v>
+      </c>
+      <c r="D25">
+        <v>1.6450881958007799E-3</v>
+      </c>
+      <c r="E25">
+        <v>2.9680728912353498E-3</v>
+      </c>
+      <c r="F25">
+        <v>3.0772686004638598E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>2.2305011749267498E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.3740062713622999E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.40619277954101E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.763032913208E-3</v>
+      </c>
+      <c r="F26">
+        <v>3.1211376190185499E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>2.0439147949218701E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.31821632385253E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.7008781433105399E-3</v>
+      </c>
+      <c r="E27">
+        <v>2.73013114929199E-3</v>
+      </c>
+      <c r="F27">
+        <v>3.2200813293457001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>2.1475076675415001E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.5249252319335901E-3</v>
+      </c>
+      <c r="D28">
+        <v>1.7137527465820299E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.9277801513671801E-3</v>
+      </c>
+      <c r="F28">
+        <v>3.1418800354003902E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>2.17616558074951E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.58190727233886E-3</v>
+      </c>
+      <c r="D29">
+        <v>1.6520023345947201E-3</v>
+      </c>
+      <c r="E29">
+        <v>2.9802322387695299E-3</v>
+      </c>
+      <c r="F29">
+        <v>3.1249523162841701E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>2.0899057388305602E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.55496597290039E-3</v>
+      </c>
+      <c r="D30">
+        <v>1.71494483947753E-3</v>
+      </c>
+      <c r="E30">
+        <v>2.8500556945800699E-3</v>
+      </c>
+      <c r="F30">
+        <v>3.2000541687011701E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>2.1679878234863201E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.35421752929687E-3</v>
+      </c>
+      <c r="D31">
+        <v>1.4388561248779199E-3</v>
+      </c>
+      <c r="E31">
+        <v>2.9668807983398398E-3</v>
+      </c>
+      <c r="F31">
+        <v>3.3290386199951098E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>2.2219181060790998E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.37090682983398E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.6841888427734299E-3</v>
+      </c>
+      <c r="E32">
+        <v>2.9239654541015599E-3</v>
+      </c>
+      <c r="F32">
+        <v>3.1120777130126901E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>2.13627815246582E-2</v>
+      </c>
+      <c r="C33">
+        <v>1.3370513916015599E-3</v>
+      </c>
+      <c r="E33">
+        <v>2.960205078125E-3</v>
+      </c>
+      <c r="F33">
+        <v>3.1788349151611302E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>2.1892070770263599E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.4660358428955E-3</v>
+      </c>
+      <c r="E34">
+        <v>3.0410289764404201E-3</v>
+      </c>
+      <c r="F34">
+        <v>3.14092636108398E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>2.0582914352416899E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.47771835327148E-3</v>
+      </c>
+      <c r="E35">
+        <v>3.0221939086914002E-3</v>
+      </c>
+      <c r="F35">
+        <v>3.0820369720458902E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>2.1700859069824201E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.45196914672851E-3</v>
+      </c>
+      <c r="E36">
+        <v>2.8388500213622999E-3</v>
+      </c>
+      <c r="F36">
+        <v>3.26776504516601E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>2.1781921386718701E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.4259815216064401E-3</v>
+      </c>
+      <c r="E37">
+        <v>2.9070377349853498E-3</v>
+      </c>
+      <c r="F37">
+        <v>3.2472610473632799E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>2.12318897247314E-2</v>
+      </c>
+      <c r="C38">
+        <v>1.4231204986572201E-3</v>
+      </c>
+      <c r="E38">
+        <v>2.9680728912353498E-3</v>
+      </c>
+      <c r="F38">
+        <v>3.1907558441162101E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>2.13971138000488E-2</v>
+      </c>
+      <c r="C39">
+        <v>1.6777515411376901E-3</v>
+      </c>
+      <c r="E39">
+        <v>2.87389755249023E-3</v>
+      </c>
+      <c r="F39">
+        <v>3.0889511108398398E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>2.1477222442626901E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.35302543640136E-3</v>
+      </c>
+      <c r="E40">
+        <v>3.0901432037353498E-3</v>
+      </c>
+      <c r="F40">
+        <v>3.0679702758789002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <v>2.0932197570800701E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.43408775329589E-3</v>
+      </c>
+      <c r="E41">
+        <v>2.8679370880126901E-3</v>
+      </c>
+      <c r="F41">
+        <v>3.0179023742675699E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>2.0547151565551699E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.5292167663574199E-3</v>
+      </c>
+      <c r="E42">
+        <v>3.1018257141113199E-3</v>
+      </c>
+      <c r="F42">
+        <v>2.8872489929199201E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>2.1616935729980399E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.46317481994628E-3</v>
+      </c>
+      <c r="E43">
+        <v>2.95901298522949E-3</v>
+      </c>
+      <c r="F43">
+        <v>3.2820701599120998E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>2.1116971969604399E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.4350414276122999E-3</v>
+      </c>
+      <c r="F44">
+        <v>3.1161308288574201E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>2.1785736083984299E-2</v>
+      </c>
+      <c r="C45">
+        <v>1.5978813171386699E-3</v>
+      </c>
+      <c r="F45">
+        <v>3.3922195434570299E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46">
+        <v>2.1472930908203101E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.57904624938964E-3</v>
+      </c>
+      <c r="F46">
+        <v>3.40509414672851E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>2.1368980407714799E-2</v>
+      </c>
+      <c r="C47">
+        <v>1.39617919921875E-3</v>
+      </c>
+      <c r="F47">
+        <v>3.25608253479003E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>2.1764039993286102E-2</v>
+      </c>
+      <c r="C48">
+        <v>1.27410888671875E-3</v>
+      </c>
+      <c r="F48">
+        <v>2.8398036956787101E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>2.16948986053466E-2</v>
+      </c>
+      <c r="C49">
+        <v>1.4200210571289E-3</v>
+      </c>
+      <c r="F49">
+        <v>3.1900405883789002E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>2.1615743637084898E-2</v>
+      </c>
+      <c r="C50">
+        <v>1.43194198608398E-3</v>
+      </c>
+      <c r="F50">
+        <v>3.0529499053955E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>2.1068096160888599E-2</v>
+      </c>
+      <c r="C51">
+        <v>1.511812210083E-3</v>
+      </c>
+      <c r="F51">
+        <v>3.15093994140625E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>2.2315025329589799E-2</v>
+      </c>
+      <c r="C52">
+        <v>1.18780136108398E-3</v>
+      </c>
+      <c r="F52">
+        <v>2.94089317321777E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>2.1081209182739199E-2</v>
+      </c>
+      <c r="C53">
+        <v>1.4510154724121001E-3</v>
+      </c>
+      <c r="F53">
+        <v>3.0140876770019501E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>2.1341323852539E-2</v>
+      </c>
+      <c r="C54">
+        <v>1.4641284942626901E-3</v>
+      </c>
+      <c r="F54">
+        <v>2.92801856994628E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>2.10230350494384E-2</v>
+      </c>
+      <c r="C55">
+        <v>1.5430450439453099E-3</v>
+      </c>
+      <c r="F55">
+        <v>3.1549930572509701E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <v>2.1557807922363201E-2</v>
+      </c>
+      <c r="C56">
+        <v>1.52182579040527E-3</v>
+      </c>
+      <c r="F56">
+        <v>3.35288047790527E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57">
+        <v>2.1657943725585899E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.63888931274414E-3</v>
+      </c>
+      <c r="F57">
+        <v>3.3788681030273398E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58">
+        <v>2.0895004272460899E-2</v>
+      </c>
+      <c r="C58">
+        <v>1.38211250305175E-3</v>
+      </c>
+      <c r="F58">
+        <v>3.2529830932617101E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59">
+        <v>2.1430015563964799E-2</v>
+      </c>
+      <c r="C59">
+        <v>1.4350414276122999E-3</v>
+      </c>
+      <c r="F59">
+        <v>3.0918121337890599E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60">
+        <v>2.1196126937866201E-2</v>
+      </c>
+      <c r="C60">
+        <v>1.49416923522949E-3</v>
+      </c>
+      <c r="F60">
+        <v>3.1821727752685499E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61">
+        <v>2.1359920501708901E-2</v>
+      </c>
+      <c r="C61">
+        <v>1.48797035217285E-3</v>
+      </c>
+      <c r="F61">
+        <v>3.4797191619872999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62">
+        <v>2.0926237106323201E-2</v>
+      </c>
+      <c r="C62">
+        <v>1.36923789978027E-3</v>
+      </c>
+      <c r="F62">
+        <v>3.1518936157226502E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63">
+        <v>2.1373271942138599E-2</v>
+      </c>
+      <c r="C63">
+        <v>1.63912773132324E-3</v>
+      </c>
+      <c r="F63">
+        <v>3.08990478515625E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64">
+        <v>2.1420001983642498E-2</v>
+      </c>
+      <c r="C64">
+        <v>1.3558864593505801E-3</v>
+      </c>
+      <c r="F64">
+        <v>3.2429695129394501E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65">
+        <v>2.1698236465454102E-2</v>
+      </c>
+      <c r="C65">
+        <v>1.5277862548828099E-3</v>
+      </c>
+      <c r="F65">
+        <v>3.0980110168457001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66">
+        <v>2.1090984344482401E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.4231204986572201E-3</v>
+      </c>
+      <c r="F66">
+        <v>3.1249523162841701E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67">
+        <v>2.14359760284423E-2</v>
+      </c>
+      <c r="C67">
+        <v>1.3990402221679601E-3</v>
+      </c>
+      <c r="F67">
+        <v>3.0980110168457001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68">
+        <v>2.1490097045898399E-2</v>
+      </c>
+      <c r="C68">
+        <v>1.40118598937988E-3</v>
+      </c>
+      <c r="F68">
+        <v>3.0732154846191402E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="F69">
+        <v>3.0741691589355399E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="F70">
+        <v>3.0868053436279201E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="F71">
+        <v>3.0169486999511701E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="F72">
+        <v>3.4339427947997999E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="F73">
+        <v>3.6578178405761701E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="F74">
+        <v>3.2927989959716701E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="F75">
+        <v>3.0829906463622999E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="F76">
+        <v>3.2117366790771402E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="F77">
+        <v>3.0939579010009701E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="F78">
+        <v>3.0329227447509701E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="F79">
+        <v>2.8338432312011701E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="F80">
+        <v>3.2861232757568299E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81">
+        <v>3.0620098114013598E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82">
+        <v>3.08585166931152E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83">
+        <v>3.1437873840332001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA6D8CB-F238-0445-875C-F975A59FB634}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
